--- a/Discharge/Station1_2021-07-27_1400.xlsx
+++ b/Discharge/Station1_2021-07-27_1400.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://adminliveunc-my.sharepoint.com/personal/kriddie_ad_unc_edu/Documents/Ecuador2021/Ecuador2021/Discharge/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1cba20500feb7d90/Documents/LongTermData_CayambeCoca/Discharge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="40" documentId="8_{81E42281-AE97-4D12-B222-98FB13BFBEC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D33A472E-F368-44C7-A242-3E3ED2B77B21}"/>
+  <xr:revisionPtr revIDLastSave="41" documentId="8_{81E42281-AE97-4D12-B222-98FB13BFBEC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00692FCB-9D52-476E-B23A-B5F9FC1AD81A}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10090" yWindow="390" windowWidth="8720" windowHeight="9730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>x</t>
   </si>
@@ -52,6 +52,12 @@
   </si>
   <si>
     <t>Qtotal</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Atotal</t>
   </si>
 </sst>
 </file>
@@ -369,15 +375,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -396,8 +402,14 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>10</v>
       </c>
@@ -415,8 +427,16 @@
         <f>SUM(E2:E20)</f>
         <v>1.2427000000000001E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2">
+        <f>(D2-0)*B2/100</f>
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <f>SUM(G2:G11)</f>
+        <v>6.9999999999999993E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>15</v>
       </c>
@@ -434,8 +454,12 @@
         <f t="shared" ref="E3:E4" si="0">(D3-D2)*(B3/100)*C3</f>
         <v>1.6199999999999995E-3</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3">
+        <f>(D3-D2)*B3/100</f>
+        <v>8.9999999999999976E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>20</v>
       </c>
@@ -446,15 +470,19 @@
         <v>0.25</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D12" si="1">(A4/100+(A5/100-A4/100)/2)</f>
+        <f t="shared" ref="D4:D8" si="1">(A4/100+(A5/100-A4/100)/2)</f>
         <v>0.22500000000000001</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
         <v>1.8750000000000006E-3</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <f t="shared" ref="G4:G15" si="2">(D4-D3)*B4/100</f>
+        <v>7.5000000000000023E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>25</v>
       </c>
@@ -472,8 +500,12 @@
         <f>(D5-D4)*(B5/100)*C5</f>
         <v>1.7600000000000007E-3</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <f t="shared" si="2"/>
+        <v>8.0000000000000019E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>30</v>
       </c>
@@ -488,11 +520,15 @@
         <v>0.32499999999999996</v>
       </c>
       <c r="E6">
-        <f t="shared" ref="E6:E12" si="2">(D6-D5)*(B6/100)*C6</f>
+        <f t="shared" ref="E6:E8" si="3">(D6-D5)*(B6/100)*C6</f>
         <v>1.5999999999999981E-3</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>7.9999999999999898E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>35</v>
       </c>
@@ -507,11 +543,15 @@
         <v>0.375</v>
       </c>
       <c r="E7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.2320000000000011E-3</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>8.0000000000000071E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>40</v>
       </c>
@@ -526,11 +566,15 @@
         <v>0.42500000000000004</v>
       </c>
       <c r="E8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.8000000000000105E-4</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>7.0000000000000062E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>45</v>
       </c>
@@ -541,15 +585,19 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="D9">
-        <f t="shared" ref="D9" si="3">(A9/100+(A10/100-A9/100)/2)</f>
+        <f t="shared" ref="D9" si="4">(A9/100+(A10/100-A9/100)/2)</f>
         <v>0.47499999999999998</v>
       </c>
       <c r="E9">
         <f>(D9-D8)*(B9/100)*C9</f>
         <v>1.0499999999999986E-3</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>7.4999999999999902E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>50</v>
       </c>
@@ -560,15 +608,19 @@
         <v>0.1</v>
       </c>
       <c r="D10">
-        <f t="shared" ref="D10:D14" si="4">(A10/100+(A11/100-A10/100)/2)</f>
+        <f t="shared" ref="D10:D14" si="5">(A10/100+(A11/100-A10/100)/2)</f>
         <v>0.52500000000000002</v>
       </c>
       <c r="E10">
-        <f t="shared" ref="E10:E14" si="5">(D10-D9)*(B10/100)*C10</f>
+        <f t="shared" ref="E10:E14" si="6">(D10-D9)*(B10/100)*C10</f>
         <v>8.000000000000008E-4</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>8.0000000000000071E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>55</v>
       </c>
@@ -579,15 +631,19 @@
         <v>0.09</v>
       </c>
       <c r="D11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.57499999999999996</v>
       </c>
       <c r="E11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.2999999999999916E-4</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11">
+        <f t="shared" si="2"/>
+        <v>6.9999999999999906E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>60</v>
       </c>
@@ -598,15 +654,19 @@
         <v>0.08</v>
       </c>
       <c r="D12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.625</v>
       </c>
       <c r="E12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.600000000000006E-4</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12">
+        <f t="shared" si="2"/>
+        <v>7.0000000000000062E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>65</v>
       </c>
@@ -617,15 +677,19 @@
         <v>0.04</v>
       </c>
       <c r="D13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.67500000000000004</v>
       </c>
       <c r="E13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.4000000000000022E-4</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13">
+        <f t="shared" si="2"/>
+        <v>6.0000000000000053E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>70</v>
       </c>
@@ -636,15 +700,19 @@
         <v>0.02</v>
       </c>
       <c r="D14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.71499999999999997</v>
       </c>
       <c r="E14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.9999999999999844E-5</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14">
+        <f t="shared" si="2"/>
+        <v>3.9999999999999923E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>73</v>
       </c>
@@ -655,11 +723,15 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <f t="shared" ref="D15" si="6">(A15/100+(A16/100-A15/100)/2)</f>
+        <f t="shared" ref="D15" si="7">(A15/100+(A16/100-A15/100)/2)</f>
         <v>0.36499999999999999</v>
       </c>
       <c r="E15">
-        <f t="shared" ref="E15" si="7">(D15-D14)*(B15/100)*C15</f>
+        <f t="shared" ref="E15" si="8">(D15-D14)*(B15/100)*C15</f>
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
